--- a/SampleData_RealAnon2020/fromBot_StudentSchedules_1SheetEach.xlsx
+++ b/SampleData_RealAnon2020/fromBot_StudentSchedules_1SheetEach.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="131">
   <si>
     <t>Chekov, Pavel</t>
   </si>
@@ -77,304 +77,328 @@
     <t>Tuesday, Feb. 11 3:15 - 3:45</t>
   </si>
   <si>
-    <t>Tuesday, Feb. 11 3:30 - 4:00</t>
-  </si>
-  <si>
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>Vivek Swarup</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Jun Allard</t>
+  </si>
+  <si>
+    <t>Thomas Schilling</t>
+  </si>
+  <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Clare Yu</t>
+  </si>
+  <si>
+    <t>Lee Bardwell</t>
+  </si>
+  <si>
+    <t>4092 Bren Hall #949/824-1753</t>
+  </si>
+  <si>
+    <t>3036 Hewitt Hall #949/824-6150</t>
+  </si>
+  <si>
+    <t>3224 BioSci 3 #949/824-3182</t>
+  </si>
+  <si>
+    <t>440 F Rowland Hall #949/824-1954</t>
+  </si>
+  <si>
+    <t>4109 NatSci 2 #949/824-2479</t>
+  </si>
+  <si>
+    <t>1107 NatSci 2 #949/824-9942</t>
+  </si>
+  <si>
+    <t>4238 McGaugh Hall #949/824-4346</t>
+  </si>
+  <si>
+    <t>210 E Rowland Hall #949/824-6216</t>
+  </si>
+  <si>
+    <t>2208 NatSci 1 #949/824-6902</t>
+  </si>
+  <si>
+    <t>Borg Queen, The</t>
+  </si>
+  <si>
+    <t>Dominik Wodarz</t>
+  </si>
+  <si>
     <t>Maksim Plikus</t>
   </si>
   <si>
+    <t>Reginald McNulty</t>
+  </si>
+  <si>
+    <t>Ali Mortazavi</t>
+  </si>
+  <si>
     <t>Marcus Seldin</t>
   </si>
   <si>
+    <t>Anne Calof</t>
+  </si>
+  <si>
+    <t>Kevin Beier</t>
+  </si>
+  <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>2072 AIRB #949/824-2531</t>
+  </si>
+  <si>
+    <t>3018 Gross Hall #949/824-1260</t>
+  </si>
+  <si>
+    <t>4124 NatSci 1 #949/824-7347</t>
+  </si>
+  <si>
+    <t>2218 BioSci 3 #949/824-6762</t>
+  </si>
+  <si>
+    <t>314 Sprague Hall #949/824-6765</t>
+  </si>
+  <si>
+    <t>2206 BioSci 3 #949/824-4616</t>
+  </si>
+  <si>
+    <t>MedSci1 - D335 #949/824-1083</t>
+  </si>
+  <si>
+    <t>5232 McGaugh Hall #949/302-7325</t>
+  </si>
+  <si>
+    <t>Bashir, Julian</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Medha Pathak</t>
+  </si>
+  <si>
+    <t>463 Steinhaus Hall #949/824-2061</t>
+  </si>
+  <si>
+    <t>3026 Gross Hall #949/824-6623</t>
+  </si>
+  <si>
+    <t>Crusher, Beverley</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>3102 BioSci 3 #949/824-2244</t>
+  </si>
+  <si>
+    <t>4111 NatSci 2 #949/824-3086</t>
+  </si>
+  <si>
+    <t>Yar, Tasha</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
+  </si>
+  <si>
     <t>Kyoko Yokomori</t>
   </si>
   <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Jun Allard</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>J. J. Emerson</t>
+  </si>
+  <si>
+    <t>3105 NatSci 2 #949/824-8534</t>
+  </si>
+  <si>
+    <t>H128 Hitachi Bldg #949/824-8215</t>
+  </si>
+  <si>
+    <t>2408 Engineering 3 #949/824-8744</t>
+  </si>
+  <si>
+    <t>5230 McGaugh Hall #949/824-9527</t>
+  </si>
+  <si>
+    <t>La Forge, Geordi</t>
+  </si>
+  <si>
+    <t>Jose Ranz</t>
   </si>
   <si>
     <t>Jin Yu</t>
   </si>
   <si>
-    <t>Clare Yu</t>
-  </si>
-  <si>
-    <t>Lee Bardwell</t>
-  </si>
-  <si>
-    <t>3018 Gross Hall #949/824-1260</t>
-  </si>
-  <si>
-    <t>314 Sprague Hall #949/824-6765</t>
-  </si>
-  <si>
-    <t>H128 Hitachi Bldg #949/824-8215</t>
-  </si>
-  <si>
-    <t>4092 Bren Hall #949/824-1753</t>
-  </si>
-  <si>
-    <t>440 F Rowland Hall #949/824-1954</t>
-  </si>
-  <si>
-    <t>4111 NatSci 2 #949/824-3086</t>
+    <t>Alejandra Verdugo</t>
+  </si>
+  <si>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>456 Steinhaus Hall #949/824-9071</t>
   </si>
   <si>
     <t>220B Rowland Hall #949/824-2177</t>
   </si>
   <si>
-    <t>210 E Rowland Hall #949/824-6216</t>
-  </si>
-  <si>
-    <t>2208 NatSci 1 #949/824-6902</t>
-  </si>
-  <si>
-    <t>Borg Queen, The</t>
-  </si>
-  <si>
-    <t>Kevin Beier</t>
+    <t>3110 BioSci 3 #949/824-3120</t>
+  </si>
+  <si>
+    <t>2216 BioSci 3 #949/824-3078</t>
+  </si>
+  <si>
+    <t>Crusher, Wesley</t>
+  </si>
+  <si>
+    <t>John Lowengrub</t>
+  </si>
+  <si>
+    <t>540 H Rowland Hall #949/824-8456</t>
+  </si>
+  <si>
+    <t>Sisko, Benjamin</t>
+  </si>
+  <si>
+    <t>Devon Lawson</t>
+  </si>
+  <si>
+    <t>112 Sprague Hall #949/824-2991</t>
+  </si>
+  <si>
+    <t>Dax, Jadzia</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>3108 BioSci 3 #949/824-2341</t>
+  </si>
+  <si>
+    <t>Troi, Deanna</t>
+  </si>
+  <si>
+    <t>Arthur Lander</t>
+  </si>
+  <si>
+    <t>Katrine Whiteson</t>
+  </si>
+  <si>
+    <t>Albert Siryaporn</t>
+  </si>
+  <si>
+    <t>Grace Yuh Chwen Lee</t>
+  </si>
+  <si>
+    <t>2600 BioSci 3 #949/824-1721</t>
+  </si>
+  <si>
+    <t>3236 McGaugh Hall #949/824-9032</t>
+  </si>
+  <si>
+    <t>210C Rowland Hall #949/824-5141</t>
+  </si>
+  <si>
+    <t>5207 McGaugh Hall #949/824-6039</t>
+  </si>
+  <si>
+    <t>Nechayev, Alynna</t>
   </si>
   <si>
     <t>Zeba Wunderlich</t>
   </si>
   <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Dominik Wodarz</t>
-  </si>
-  <si>
-    <t>Anne Calof</t>
-  </si>
-  <si>
-    <t>Ali Mortazavi</t>
-  </si>
-  <si>
-    <t>MedSci1 - D335 #949/824-1083</t>
+    <t>James Brody</t>
   </si>
   <si>
     <t>4107 NatSci 2 #949/824-5959</t>
   </si>
   <si>
-    <t>3105 NatSci 2 #949/824-8534</t>
-  </si>
-  <si>
-    <t>4238 McGaugh Hall #949/824-4346</t>
-  </si>
-  <si>
-    <t>2072 AIRB #949/824-2531</t>
-  </si>
-  <si>
-    <t>2206 BioSci 3 #949/824-4616</t>
-  </si>
-  <si>
-    <t>2218 BioSci 3 #949/824-6762</t>
-  </si>
-  <si>
-    <t>Bashir, Julian</t>
-  </si>
-  <si>
-    <t>Reginald McNulty</t>
-  </si>
-  <si>
-    <t>Thomas Schilling</t>
-  </si>
-  <si>
-    <t>Medha Pathak</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>Vivek Swarup</t>
-  </si>
-  <si>
-    <t>4124 NatSci 1 #949/824-7347</t>
-  </si>
-  <si>
-    <t>4109 NatSci 2 #949/824-2479</t>
-  </si>
-  <si>
-    <t>3026 Gross Hall #949/824-6623</t>
-  </si>
-  <si>
-    <t>2408 Engineering 3 #949/824-8744</t>
-  </si>
-  <si>
-    <t>3224 BioSci 3 #949/824-3182</t>
-  </si>
-  <si>
-    <t>Crusher, Beverley</t>
-  </si>
-  <si>
-    <t>Grace Yuh Chwen Lee</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
+    <t>3111 NatSci 2 #949/824-2471</t>
+  </si>
+  <si>
+    <t>Nerys, Kira</t>
   </si>
   <si>
     <t>Kavita Arora</t>
   </si>
   <si>
-    <t>Matt McHenry</t>
+    <t>4215 McGaugh Hall #949/824-1087</t>
+  </si>
+  <si>
+    <t>Janeway, Kathryn</t>
+  </si>
+  <si>
+    <t>Jack Xin</t>
   </si>
   <si>
     <t>Knut Solna</t>
   </si>
   <si>
-    <t>5207 McGaugh Hall #949/824-6039</t>
-  </si>
-  <si>
-    <t>463 Steinhaus Hall #949/824-2061</t>
-  </si>
-  <si>
-    <t>4215 McGaugh Hall #949/824-1087</t>
-  </si>
-  <si>
-    <t>5232 McGaugh Hall #949/302-7325</t>
+    <t>540E Rowland Hall #949/824-5309</t>
   </si>
   <si>
     <t>540 G Rowland Hall #949/824-3154</t>
   </si>
   <si>
-    <t>Yar, Tasha</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>J. J. Emerson</t>
-  </si>
-  <si>
-    <t>3108 BioSci 3 #949/824-2341</t>
-  </si>
-  <si>
-    <t>5230 McGaugh Hall #949/824-9527</t>
-  </si>
-  <si>
-    <t>La Forge, Geordi</t>
-  </si>
-  <si>
-    <t>Eric Potma</t>
-  </si>
-  <si>
-    <t>1107 NatSci 2 #949/824-9942</t>
-  </si>
-  <si>
-    <t>Crusher, Wesley</t>
-  </si>
-  <si>
-    <t>Ilhem Messaoudi</t>
-  </si>
-  <si>
-    <t>Armando Villalta</t>
-  </si>
-  <si>
-    <t>2216 BioSci 3 #949/824-3078</t>
-  </si>
-  <si>
-    <t>3036 Hewitt Hall #949/824-6150</t>
-  </si>
-  <si>
-    <t>Sisko, Benjamin</t>
-  </si>
-  <si>
-    <t>John Lowengrub</t>
+    <t>Kirk, James T.</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>2418 Engineering 3 #949/824-3211</t>
+  </si>
+  <si>
+    <t>Guinan</t>
+  </si>
+  <si>
+    <t>Kevin Thornton</t>
+  </si>
+  <si>
+    <t>5221 McGaugh Hall #949/824-0614</t>
+  </si>
+  <si>
+    <t>McCoy, Leonard</t>
+  </si>
+  <si>
+    <t>O'Brien, Miles</t>
+  </si>
+  <si>
+    <t>Picard, Jean-Luc</t>
   </si>
   <si>
     <t>Marian Waterman</t>
   </si>
   <si>
-    <t>Devon Lawson</t>
-  </si>
-  <si>
-    <t>540 H Rowland Hall #949/824-8456</t>
-  </si>
-  <si>
     <t>224 Sprague Hall #949/824-2885</t>
   </si>
   <si>
-    <t>112 Sprague Hall #949/824-2991</t>
-  </si>
-  <si>
-    <t>Dax, Jadzia</t>
-  </si>
-  <si>
-    <t>James Brody</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Alejandra Verdugo</t>
-  </si>
-  <si>
-    <t>3111 NatSci 2 #949/824-2471</t>
-  </si>
-  <si>
-    <t>3102 BioSci 3 #949/824-2244</t>
-  </si>
-  <si>
-    <t>3110 BioSci 3 #949/824-3120</t>
-  </si>
-  <si>
-    <t>Troi, Deanna</t>
-  </si>
-  <si>
-    <t>Arthur Lander</t>
-  </si>
-  <si>
-    <t>Kevin Thornton</t>
-  </si>
-  <si>
-    <t>Albert Siryaporn</t>
-  </si>
-  <si>
-    <t>2600 BioSci 3 #949/824-1721</t>
-  </si>
-  <si>
-    <t>5221 McGaugh Hall #949/824-0614</t>
-  </si>
-  <si>
-    <t>210C Rowland Hall #949/824-5141</t>
-  </si>
-  <si>
-    <t>Nechayev, Alynna</t>
-  </si>
-  <si>
-    <t>Nerys, Kira</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>2418 Engineering 3 #949/824-3211</t>
-  </si>
-  <si>
-    <t>Janeway, Kathryn</t>
-  </si>
-  <si>
-    <t>Jack Xin</t>
-  </si>
-  <si>
-    <t>540E Rowland Hall #949/824-5309</t>
-  </si>
-  <si>
-    <t>Kirk, James T.</t>
+    <t>Torres, B'Elanna</t>
   </si>
   <si>
     <t>Bruce Blumberg</t>
@@ -383,33 +407,6 @@
     <t>4103 NatSci 2 #949/824-8573</t>
   </si>
   <si>
-    <t>Guinan</t>
-  </si>
-  <si>
-    <t>Katrine Whiteson</t>
-  </si>
-  <si>
-    <t>3236 McGaugh Hall #949/824-9032</t>
-  </si>
-  <si>
-    <t>McCoy, Leonard</t>
-  </si>
-  <si>
-    <t>O'Brien, Miles</t>
-  </si>
-  <si>
-    <t>Picard, Jean-Luc</t>
-  </si>
-  <si>
-    <t>Jose Ranz</t>
-  </si>
-  <si>
-    <t>456 Steinhaus Hall #949/824-9071</t>
-  </si>
-  <si>
-    <t>Torres, B'Elanna</t>
-  </si>
-  <si>
     <t>Rozhenko, Alexander</t>
   </si>
   <si>
@@ -419,13 +416,13 @@
     <t>Worf</t>
   </si>
   <si>
+    <t>Qing Nie</t>
+  </si>
+  <si>
+    <t>540F Rowland Hall #949/824-5530</t>
+  </si>
+  <si>
     <t>Ogawa, Alyssa</t>
-  </si>
-  <si>
-    <t>Qing Nie</t>
-  </si>
-  <si>
-    <t>540F Rowland Hall #949/824-5530</t>
   </si>
   <si>
     <t>Sulu, Hikaru</t>
@@ -792,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,10 +812,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -826,10 +823,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -837,10 +834,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -848,10 +845,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -859,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -870,7 +864,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -878,10 +875,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -889,10 +886,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -900,10 +897,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -911,7 +908,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -919,18 +919,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +929,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +941,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -963,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -971,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -979,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -990,10 +979,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1001,10 +990,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1012,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1020,10 +1009,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1031,10 +1020,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1042,10 +1031,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1053,7 +1042,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1061,18 +1053,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1066,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1094,7 +1078,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1105,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1113,10 +1097,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1124,10 +1108,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1135,7 +1119,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1143,10 +1130,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1154,7 +1138,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1162,10 +1149,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1173,10 +1160,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1184,10 +1171,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1195,10 +1182,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1206,18 +1193,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1239,7 +1215,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1252,19 +1228,16 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1272,10 +1245,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1283,10 +1256,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1294,7 +1264,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1302,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1310,10 +1283,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1321,10 +1291,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1332,10 +1302,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1343,10 +1313,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1354,17 +1324,9 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1375,7 +1337,141 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1398,7 +1494,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1406,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1417,10 +1516,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1428,10 +1524,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1439,7 +1532,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1447,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1455,10 +1551,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1466,10 +1562,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1477,10 +1573,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1488,10 +1584,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1499,18 +1595,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1518,9 +1603,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1628,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1551,7 +1639,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1559,10 +1650,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1570,10 +1661,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1581,7 +1672,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1589,10 +1683,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1600,10 +1694,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1611,10 +1705,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1622,10 +1713,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1633,10 +1724,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1644,15 +1732,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1660,9 +1743,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1685,10 +1768,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1696,10 +1779,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1707,10 +1790,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1718,7 +1801,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1726,10 +1812,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1737,10 +1823,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1748,7 +1831,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1756,7 +1842,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1764,7 +1853,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1772,7 +1864,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1780,15 +1875,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1796,9 +1886,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1810,7 +1900,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1821,10 +1911,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1832,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1840,10 +1927,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1851,7 +1938,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1859,10 +1949,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1870,10 +1960,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1881,7 +1968,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1889,10 +1976,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1900,10 +1987,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1911,10 +1998,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1922,15 +2009,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1938,9 +2020,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1952,7 +2034,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1963,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1971,10 +2053,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1982,10 +2064,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1993,10 +2075,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2004,10 +2086,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2015,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2023,10 +2105,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2034,7 +2116,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2042,10 +2127,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2053,10 +2138,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2064,15 +2149,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2080,9 +2160,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2105,10 +2185,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2116,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2127,7 +2207,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2135,10 +2218,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2146,7 +2229,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2154,10 +2240,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2165,7 +2248,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2173,7 +2259,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2181,10 +2270,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2192,10 +2281,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2203,15 +2292,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2219,9 +2300,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2244,7 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2252,7 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2260,10 +2487,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2271,7 +2495,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2279,10 +2503,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2290,7 +2511,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2298,10 +2522,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2309,10 +2533,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2320,10 +2544,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2331,7 +2555,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2339,18 +2566,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2358,154 +2577,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2528,10 +2602,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2539,7 +2610,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2547,10 +2618,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2558,10 +2629,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2569,10 +2640,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2583,7 +2651,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2591,10 +2659,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2602,10 +2670,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2613,10 +2681,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2624,10 +2692,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2635,18 +2703,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2654,9 +2714,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2679,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2687,10 +2747,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2698,10 +2755,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2709,7 +2766,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2717,10 +2777,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2728,7 +2785,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2736,10 +2796,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2747,7 +2807,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2755,10 +2818,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2766,10 +2829,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2777,15 +2840,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2793,9 +2848,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2807,7 +2862,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2821,7 +2876,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2829,10 +2884,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2840,10 +2895,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2851,7 +2906,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2859,10 +2914,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2870,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2878,10 +2930,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2889,10 +2941,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2900,10 +2949,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2911,7 +2960,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2919,15 +2971,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2935,9 +2979,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2949,7 +2993,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2960,10 +3004,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2971,10 +3015,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2982,7 +3026,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2990,10 +3037,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3001,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3009,7 +3056,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3017,10 +3064,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3028,10 +3072,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3039,10 +3080,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3050,10 +3091,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3061,18 +3102,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3080,9 +3113,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3105,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3113,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3124,10 +3157,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3135,10 +3165,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3146,7 +3176,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3154,7 +3184,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3162,10 +3192,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3173,10 +3203,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3184,7 +3214,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3192,10 +3225,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3203,18 +3236,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3222,9 +3247,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3247,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3255,10 +3280,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3266,10 +3291,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3277,10 +3302,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3288,7 +3313,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3296,10 +3324,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3307,10 +3335,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3318,10 +3343,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3329,10 +3354,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3340,10 +3362,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3351,18 +3370,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3370,9 +3378,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3384,7 +3392,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3395,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3403,10 +3411,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3414,7 +3419,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3422,10 +3430,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3433,10 +3441,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3444,7 +3452,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3452,10 +3463,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3463,10 +3474,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3474,10 +3482,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3485,10 +3493,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3496,18 +3504,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3515,9 +3512,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3529,7 +3526,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3540,10 +3537,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3551,10 +3548,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3562,10 +3559,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3573,10 +3567,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3584,7 +3578,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3592,10 +3586,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3603,7 +3594,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3611,10 +3605,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3622,10 +3616,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3633,10 +3624,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3644,18 +3632,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3663,9 +3643,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3688,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3696,7 +3676,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3704,10 +3684,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3715,10 +3695,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3726,10 +3706,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3737,7 +3714,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3745,10 +3722,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3756,10 +3733,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3770,7 +3747,7 @@
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3781,7 +3758,7 @@
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3789,18 +3766,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3808,9 +3777,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3822,7 +3791,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3833,10 +3802,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3844,10 +3813,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3855,10 +3824,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3866,7 +3832,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3874,7 +3843,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3882,7 +3851,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3890,10 +3862,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3901,10 +3873,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3912,7 +3884,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3920,10 +3895,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3931,15 +3906,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3947,9 +3917,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3961,7 +3931,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3972,10 +3942,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3983,7 +3953,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3991,10 +3964,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4002,7 +3975,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4010,10 +3983,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4023,19 +3993,16 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4043,10 +4010,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4054,10 +4021,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4065,7 +4032,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4073,15 +4043,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4089,9 +4054,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4103,7 +4068,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4114,10 +4079,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4125,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4133,7 +4098,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4141,10 +4109,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4152,10 +4120,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4163,10 +4128,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4174,10 +4139,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4185,10 +4150,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4196,10 +4158,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4207,10 +4169,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4218,15 +4180,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4234,9 +4188,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4259,10 +4213,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4270,10 +4224,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4281,7 +4232,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4289,10 +4243,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4300,7 +4254,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4308,10 +4265,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4319,10 +4273,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4330,10 +4281,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4343,19 +4294,16 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4363,166 +4311,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
